--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B541"/>
+  <dimension ref="A1:B542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4829,6 +4829,14 @@
       </c>
       <c r="B541" t="inlineStr"/>
     </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Hima</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B542"/>
+  <dimension ref="A1:B541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4829,14 +4829,6 @@
       </c>
       <c r="B541" t="inlineStr"/>
     </row>
-    <row r="542">
-      <c r="A542" t="inlineStr">
-        <is>
-          <t>Hima</t>
-        </is>
-      </c>
-      <c r="B542" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B541"/>
+  <dimension ref="A1:B542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4829,6 +4829,14 @@
       </c>
       <c r="B541" t="inlineStr"/>
     </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>ISA</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B542"/>
+  <dimension ref="A1:B541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4829,14 +4829,6 @@
       </c>
       <c r="B541" t="inlineStr"/>
     </row>
-    <row r="542">
-      <c r="A542" t="inlineStr">
-        <is>
-          <t>ISA</t>
-        </is>
-      </c>
-      <c r="B542" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B541"/>
+  <dimension ref="A1:B542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4829,6 +4829,14 @@
       </c>
       <c r="B541" t="inlineStr"/>
     </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>A (Tc)</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B846"/>
+  <dimension ref="A1:B847"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7269,6 +7269,14 @@
       </c>
       <c r="B846" t="inlineStr"/>
     </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>°C (65°C to 125°C)</t>
+        </is>
+      </c>
+      <c r="B847" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B847"/>
+  <dimension ref="A1:B848"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7277,6 +7277,14 @@
       </c>
       <c r="B847" t="inlineStr"/>
     </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>°C (65°C , 125°C)</t>
+        </is>
+      </c>
+      <c r="B848" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4356" uniqueCount="4352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4358" uniqueCount="4354">
   <si>
     <t>Base Unit Symbol</t>
   </si>
@@ -13078,6 +13078,12 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>(37)</t>
+  </si>
+  <si>
+    <t>(5)</t>
   </si>
 </sst>
 </file>
@@ -13133,11 +13139,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13440,10 +13447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4338"/>
+  <dimension ref="A1:B4340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4312" workbookViewId="0">
-      <selection activeCell="A4336" sqref="A4336"/>
+    <sheetView tabSelected="1" topLeftCell="A4314" workbookViewId="0">
+      <selection activeCell="A4326" sqref="A4326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35192,6 +35199,16 @@
         <v>4350</v>
       </c>
     </row>
+    <row r="4339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4339" s="2" t="s">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="4340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4340" s="2" t="s">
+        <v>4353</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B4337"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$4337</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$4499</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4505" uniqueCount="4445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4526" uniqueCount="4454">
   <si>
     <t>Base Unit Symbol</t>
   </si>
@@ -13357,6 +13357,33 @@
   </si>
   <si>
     <t>m (3/32", Sub Mini, Miniature) - Headphone</t>
+  </si>
+  <si>
+    <t>GPM (1.9-7.6LPM)</t>
+  </si>
+  <si>
+    <t>lm (Typ) Warm White</t>
+  </si>
+  <si>
+    <t>bs</t>
+  </si>
+  <si>
+    <t>A N Channel</t>
+  </si>
+  <si>
+    <t>lm (Typ) Cool White</t>
+  </si>
+  <si>
+    <t>A (2)</t>
+  </si>
+  <si>
+    <t>A ( Ta)</t>
+  </si>
+  <si>
+    <t>GPM (34-40LPM)</t>
+  </si>
+  <si>
+    <t>Hz ARM9</t>
   </si>
 </sst>
 </file>
@@ -13736,7 +13763,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4487"/>
+  <dimension ref="A1:B4508"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36231,8 +36258,112 @@
         <v>4373</v>
       </c>
     </row>
+    <row r="4488" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4488" t="s">
+        <v>4445</v>
+      </c>
+    </row>
+    <row r="4489" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4489" t="s">
+        <v>4446</v>
+      </c>
+    </row>
+    <row r="4490" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4490" t="s">
+        <v>4447</v>
+      </c>
+    </row>
+    <row r="4491" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4491" t="s">
+        <v>4448</v>
+      </c>
+    </row>
+    <row r="4492" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4492" t="s">
+        <v>4446</v>
+      </c>
+    </row>
+    <row r="4493" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4493" t="s">
+        <v>4449</v>
+      </c>
+    </row>
+    <row r="4494" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4494" t="s">
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="4495" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4495" t="s">
+        <v>4446</v>
+      </c>
+    </row>
+    <row r="4496" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4496" t="s">
+        <v>4451</v>
+      </c>
+    </row>
+    <row r="4497" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4497" t="s">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="4498" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4498" t="s">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="4499" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4499" t="s">
+        <v>4445</v>
+      </c>
+    </row>
+    <row r="4500" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4500" t="s">
+        <v>4446</v>
+      </c>
+    </row>
+    <row r="4501" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4501" t="s">
+        <v>4448</v>
+      </c>
+    </row>
+    <row r="4502" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4502" t="s">
+        <v>4453</v>
+      </c>
+    </row>
+    <row r="4503" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4503" t="s">
+        <v>4446</v>
+      </c>
+    </row>
+    <row r="4504" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4504" t="s">
+        <v>4449</v>
+      </c>
+    </row>
+    <row r="4505" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4505" t="s">
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="4506" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4506" t="s">
+        <v>4446</v>
+      </c>
+    </row>
+    <row r="4507" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4507" t="s">
+        <v>4451</v>
+      </c>
+    </row>
+    <row r="4508" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4508" t="s">
+        <v>4452</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B4337"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibrahem.abdelbaky\Downloads\FF-main (21)\FF-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibrahem.abdelbaky\Downloads\FF-main (22)\FF-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEF8B62-C2E7-42A0-A39E-C8211140CE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3BBB69-BAAF-4FD4-BAF1-C11716504CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$4508</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$8930</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8949" uniqueCount="4512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8948" uniqueCount="4510">
   <si>
     <t>Base Unit Symbol</t>
   </si>
@@ -13321,9 +13321,6 @@
     <t>WRed</t>
   </si>
   <si>
-    <t>GHz ARM®</t>
-  </si>
-  <si>
     <t>K (2900K to 3200K) (3-Step SDCM MacAdam Ellipse)</t>
   </si>
   <si>
@@ -13556,9 +13553,6 @@
   </si>
   <si>
     <t>qt</t>
-  </si>
-  <si>
-    <t>GHz</t>
   </si>
 </sst>
 </file>
@@ -13953,7 +13947,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8931"/>
+  <dimension ref="A1:B8930"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14275,7 +14269,7 @@
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>4453</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
@@ -36334,63 +36328,63 @@
       </c>
     </row>
     <row r="4465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4465" s="3" t="s">
-        <v>4432</v>
+      <c r="A4465" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="4466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4466" t="s">
-        <v>406</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="4467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4467" t="s">
+      <c r="A4467" s="3" t="s">
+        <v>4423</v>
+      </c>
+    </row>
+    <row r="4468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4468" t="s">
         <v>4433</v>
       </c>
     </row>
-    <row r="4468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4468" s="3" t="s">
-        <v>4423</v>
-      </c>
-    </row>
     <row r="4469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4469" t="s">
+      <c r="A4469" s="3" t="s">
         <v>4434</v>
       </c>
     </row>
     <row r="4470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4470" s="3" t="s">
+      <c r="A4470" t="s">
         <v>4435</v>
       </c>
     </row>
     <row r="4471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4471" t="s">
-        <v>4436</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4472" t="s">
-        <v>523</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="4473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4473" t="s">
-        <v>4437</v>
+      <c r="A4473" s="3" t="s">
+        <v>4436</v>
       </c>
     </row>
     <row r="4474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4474" s="3" t="s">
-        <v>4437</v>
+      <c r="A4474" t="s">
+        <v>4421</v>
       </c>
     </row>
     <row r="4475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4475" t="s">
-        <v>4432</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="4476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4476" t="s">
-        <v>4436</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="4477" spans="1:1" x14ac:dyDescent="0.25">
@@ -36405,17 +36399,17 @@
     </row>
     <row r="4479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4479" t="s">
-        <v>4440</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="4480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4480" t="s">
-        <v>4383</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="4481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4481" t="s">
-        <v>4384</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="4482" spans="1:1" x14ac:dyDescent="0.25">
@@ -36430,22 +36424,22 @@
     </row>
     <row r="4484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4484" t="s">
-        <v>4443</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4485" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4486" t="s">
-        <v>536</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="4487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4487" t="s">
-        <v>4372</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="4488" spans="1:1" x14ac:dyDescent="0.25">
@@ -36465,12 +36459,12 @@
     </row>
     <row r="4491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4491" t="s">
-        <v>4447</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="4492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4492" t="s">
-        <v>4445</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="4493" spans="1:1" x14ac:dyDescent="0.25">
@@ -36480,12 +36474,12 @@
     </row>
     <row r="4494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4494" t="s">
-        <v>4449</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="4495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4495" t="s">
-        <v>4445</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="4496" spans="1:1" x14ac:dyDescent="0.25">
@@ -36495,12 +36489,12 @@
     </row>
     <row r="4497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4497" t="s">
-        <v>4451</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="4498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4498" t="s">
-        <v>4451</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="4499" spans="1:1" x14ac:dyDescent="0.25">
@@ -36510,22 +36504,22 @@
     </row>
     <row r="4500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4500" t="s">
-        <v>4445</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="4501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4501" t="s">
-        <v>4447</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="4502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4502" t="s">
-        <v>4452</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="4503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4503" t="s">
-        <v>4445</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="4504" spans="1:1" x14ac:dyDescent="0.25">
@@ -36535,12 +36529,12 @@
     </row>
     <row r="4505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4505" t="s">
-        <v>4449</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="4506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4506" t="s">
-        <v>4445</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="4507" spans="1:1" x14ac:dyDescent="0.25">
@@ -36550,12 +36544,12 @@
     </row>
     <row r="4508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4508" t="s">
-        <v>4451</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4509" t="s">
-        <v>309</v>
+        <v>4453</v>
       </c>
     </row>
     <row r="4510" spans="1:1" x14ac:dyDescent="0.25">
@@ -36585,12 +36579,12 @@
     </row>
     <row r="4515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4515" t="s">
-        <v>4459</v>
+        <v>689</v>
       </c>
     </row>
     <row r="4516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4516" t="s">
-        <v>689</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="4517" spans="1:1" x14ac:dyDescent="0.25">
@@ -36620,17 +36614,17 @@
     </row>
     <row r="4522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4522" t="s">
-        <v>4465</v>
+        <v>690</v>
       </c>
     </row>
     <row r="4523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4523" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="4524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4524" t="s">
-        <v>691</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="4525" spans="1:1" x14ac:dyDescent="0.25">
@@ -36675,12 +36669,12 @@
     </row>
     <row r="4533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4533" t="s">
-        <v>4474</v>
+        <v>692</v>
       </c>
     </row>
     <row r="4534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4534" t="s">
-        <v>692</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="4535" spans="1:1" x14ac:dyDescent="0.25">
@@ -36800,17 +36794,17 @@
     </row>
     <row r="4558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4558" t="s">
-        <v>4498</v>
+        <v>694</v>
       </c>
     </row>
     <row r="4559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4559" t="s">
-        <v>694</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="4560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4560" t="s">
-        <v>4453</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="4561" spans="1:1" x14ac:dyDescent="0.25">
@@ -36830,22 +36824,22 @@
     </row>
     <row r="4564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4564" t="s">
-        <v>4502</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4565" t="s">
-        <v>283</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4566" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4567" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4568" spans="1:1" x14ac:dyDescent="0.25">
@@ -36895,62 +36889,62 @@
     </row>
     <row r="4577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4577" t="s">
-        <v>309</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4578" t="s">
-        <v>431</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4579" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4580" t="s">
-        <v>304</v>
+        <v>581</v>
       </c>
     </row>
     <row r="4581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4581" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
     </row>
     <row r="4582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4582" t="s">
-        <v>574</v>
+        <v>689</v>
       </c>
     </row>
     <row r="4583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4583" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="4584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4584" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="4585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4585" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="4586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4586" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="4587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4587" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="4588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4588" t="s">
-        <v>694</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4589" spans="1:1" x14ac:dyDescent="0.25">
@@ -37080,22 +37074,22 @@
     </row>
     <row r="4614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4614" t="s">
-        <v>296</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4615" t="s">
-        <v>418</v>
+        <v>590</v>
       </c>
     </row>
     <row r="4616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4616" t="s">
-        <v>590</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4617" t="s">
-        <v>559</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4618" spans="1:1" x14ac:dyDescent="0.25">
@@ -37765,7 +37759,7 @@
     </row>
     <row r="4751" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4751" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4752" spans="1:1" x14ac:dyDescent="0.25">
@@ -37785,7 +37779,7 @@
     </row>
     <row r="4755" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4755" t="s">
-        <v>307</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4756" spans="1:1" x14ac:dyDescent="0.25">
@@ -37815,12 +37809,12 @@
     </row>
     <row r="4761" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4761" t="s">
-        <v>175</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4762" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4763" spans="1:1" x14ac:dyDescent="0.25">
@@ -38925,27 +38919,27 @@
     </row>
     <row r="4983" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4983" t="s">
-        <v>26</v>
+        <v>544</v>
       </c>
     </row>
     <row r="4984" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4984" t="s">
-        <v>544</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4985" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4985" t="s">
-        <v>354</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4986" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4986" t="s">
-        <v>278</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4987" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4987" t="s">
-        <v>381</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4988" spans="1:1" x14ac:dyDescent="0.25">
@@ -39015,17 +39009,17 @@
     </row>
     <row r="5001" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5001" t="s">
-        <v>298</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5002" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5002" t="s">
-        <v>421</v>
+        <v>598</v>
       </c>
     </row>
     <row r="5003" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5003" t="s">
-        <v>598</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5004" spans="1:1" x14ac:dyDescent="0.25">
@@ -39080,12 +39074,12 @@
     </row>
     <row r="5014" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5014" t="s">
-        <v>279</v>
+        <v>598</v>
       </c>
     </row>
     <row r="5015" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5015" t="s">
-        <v>598</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5016" spans="1:1" x14ac:dyDescent="0.25">
@@ -39100,12 +39094,12 @@
     </row>
     <row r="5018" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5018" t="s">
-        <v>279</v>
+        <v>598</v>
       </c>
     </row>
     <row r="5019" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5019" t="s">
-        <v>598</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5020" spans="1:1" x14ac:dyDescent="0.25">
@@ -39120,12 +39114,12 @@
     </row>
     <row r="5022" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5022" t="s">
-        <v>279</v>
+        <v>598</v>
       </c>
     </row>
     <row r="5023" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5023" t="s">
-        <v>598</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5024" spans="1:1" x14ac:dyDescent="0.25">
@@ -39170,62 +39164,62 @@
     </row>
     <row r="5032" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5032" t="s">
-        <v>279</v>
+        <v>598</v>
       </c>
     </row>
     <row r="5033" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5033" t="s">
-        <v>598</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5034" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5034" t="s">
-        <v>279</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5035" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5035" t="s">
-        <v>509</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5036" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5036" t="s">
-        <v>10</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5037" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5037" t="s">
-        <v>366</v>
+        <v>608</v>
       </c>
     </row>
     <row r="5038" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5038" t="s">
-        <v>608</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5039" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5039" t="s">
-        <v>400</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5040" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5040" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5041" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5041" t="s">
-        <v>276</v>
+        <v>618</v>
       </c>
     </row>
     <row r="5042" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5042" t="s">
-        <v>618</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5043" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5043" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5044" spans="1:1" x14ac:dyDescent="0.25">
@@ -39240,12 +39234,12 @@
     </row>
     <row r="5046" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5046" t="s">
-        <v>297</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5047" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5047" t="s">
-        <v>369</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5048" spans="1:1" x14ac:dyDescent="0.25">
@@ -39260,32 +39254,32 @@
     </row>
     <row r="5050" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5050" t="s">
-        <v>281</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="5051" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5051" t="s">
-        <v>4446</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="5052" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5052" t="s">
-        <v>4446</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="5053" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5053" t="s">
-        <v>4446</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="5054" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5054" t="s">
-        <v>4446</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="5055" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5055" t="s">
-        <v>4503</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5056" spans="1:1" x14ac:dyDescent="0.25">
@@ -39295,7 +39289,7 @@
     </row>
     <row r="5057" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5057" t="s">
-        <v>43</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5058" spans="1:1" x14ac:dyDescent="0.25">
@@ -39335,7 +39329,7 @@
     </row>
     <row r="5065" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5065" t="s">
-        <v>355</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5066" spans="1:1" x14ac:dyDescent="0.25">
@@ -39480,72 +39474,72 @@
     </row>
     <row r="5094" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5094" t="s">
-        <v>401</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5095" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5095" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5096" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5096" t="s">
-        <v>314</v>
+        <v>587</v>
       </c>
     </row>
     <row r="5097" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5097" t="s">
-        <v>587</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5098" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5098" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5099" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5099" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5100" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5101" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5102" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5103" t="s">
-        <v>406</v>
+        <v>582</v>
       </c>
     </row>
     <row r="5104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5104" t="s">
-        <v>582</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5105" t="s">
-        <v>494</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5106" t="s">
-        <v>338</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5107" t="s">
-        <v>501</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5108" spans="1:1" x14ac:dyDescent="0.25">
@@ -39605,17 +39599,17 @@
     </row>
     <row r="5119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5119" t="s">
-        <v>272</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5120" t="s">
-        <v>399</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5121" t="s">
-        <v>357</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5122" spans="1:1" x14ac:dyDescent="0.25">
@@ -39625,7 +39619,7 @@
     </row>
     <row r="5123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5123" t="s">
-        <v>274</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5124" spans="1:1" x14ac:dyDescent="0.25">
@@ -39635,32 +39629,32 @@
     </row>
     <row r="5125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5125" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5126" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5127" t="s">
-        <v>409</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5128" t="s">
-        <v>360</v>
+        <v>611</v>
       </c>
     </row>
     <row r="5129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5129" t="s">
-        <v>611</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5130" t="s">
-        <v>373</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5131" spans="1:1" x14ac:dyDescent="0.25">
@@ -39680,37 +39674,37 @@
     </row>
     <row r="5134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5134" t="s">
-        <v>295</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5135" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5136" t="s">
-        <v>342</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5137" t="s">
-        <v>492</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5138" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5139" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
     </row>
     <row r="5140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5140" t="s">
-        <v>543</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5141" spans="1:1" x14ac:dyDescent="0.25">
@@ -39720,27 +39714,27 @@
     </row>
     <row r="5142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5142" t="s">
-        <v>282</v>
+        <v>515</v>
       </c>
     </row>
     <row r="5143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5143" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="5144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5144" t="s">
-        <v>514</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5145" t="s">
-        <v>316</v>
+        <v>605</v>
       </c>
     </row>
     <row r="5146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5146" t="s">
-        <v>605</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5147" spans="1:1" x14ac:dyDescent="0.25">
@@ -39750,7 +39744,7 @@
     </row>
     <row r="5148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5148" t="s">
-        <v>374</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5149" spans="1:1" x14ac:dyDescent="0.25">
@@ -39790,7 +39784,7 @@
     </row>
     <row r="5156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5156" t="s">
-        <v>283</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5157" spans="1:1" x14ac:dyDescent="0.25">
@@ -39805,32 +39799,32 @@
     </row>
     <row r="5159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5159" t="s">
-        <v>50</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5160" t="s">
-        <v>370</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5161" t="s">
-        <v>506</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5162" t="s">
-        <v>63</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5163" t="s">
-        <v>600</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5164" t="s">
-        <v>372</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5165" spans="1:1" x14ac:dyDescent="0.25">
@@ -39840,42 +39834,42 @@
     </row>
     <row r="5166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5166" t="s">
-        <v>600</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5167" t="s">
-        <v>392</v>
+        <v>619</v>
       </c>
     </row>
     <row r="5168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5168" t="s">
-        <v>619</v>
+        <v>557</v>
       </c>
     </row>
     <row r="5169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5169" t="s">
-        <v>557</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5170" t="s">
-        <v>402</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5171" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5172" t="s">
-        <v>362</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5173" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5174" spans="1:1" x14ac:dyDescent="0.25">
@@ -39965,82 +39959,82 @@
     </row>
     <row r="5191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5191" t="s">
-        <v>427</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="5192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5192" t="s">
-        <v>4504</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="5193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5193" t="s">
-        <v>4504</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="5194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5194" t="s">
-        <v>4504</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="5195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5195" t="s">
-        <v>4504</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="5196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5196" t="s">
-        <v>4504</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="5197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5197" t="s">
-        <v>4504</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="5198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5198" t="s">
-        <v>4504</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="5199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5199" t="s">
-        <v>4504</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="5200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5200" t="s">
-        <v>4504</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5201" t="s">
-        <v>284</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5202" t="s">
-        <v>453</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5203" t="s">
-        <v>120</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5204" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5205" t="s">
-        <v>424</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5206" t="s">
-        <v>498</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5207" spans="1:1" x14ac:dyDescent="0.25">
@@ -40050,7 +40044,7 @@
     </row>
     <row r="5208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5208" t="s">
-        <v>303</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5209" spans="1:1" x14ac:dyDescent="0.25">
@@ -40160,12 +40154,12 @@
     </row>
     <row r="5230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5230" t="s">
-        <v>66</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5231" t="s">
-        <v>379</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5232" spans="1:1" x14ac:dyDescent="0.25">
@@ -40175,17 +40169,17 @@
     </row>
     <row r="5233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5233" t="s">
-        <v>44</v>
+        <v>585</v>
       </c>
     </row>
     <row r="5234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5234" t="s">
-        <v>585</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5235" t="s">
-        <v>286</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5236" spans="1:1" x14ac:dyDescent="0.25">
@@ -40900,17 +40894,17 @@
     </row>
     <row r="5378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5378" t="s">
-        <v>351</v>
+        <v>562</v>
       </c>
     </row>
     <row r="5379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5379" t="s">
-        <v>562</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5380" t="s">
-        <v>199</v>
+        <v>602</v>
       </c>
     </row>
     <row r="5381" spans="1:1" x14ac:dyDescent="0.25">
@@ -40920,7 +40914,7 @@
     </row>
     <row r="5382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5382" t="s">
-        <v>602</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5383" spans="1:1" x14ac:dyDescent="0.25">
@@ -40940,7 +40934,7 @@
     </row>
     <row r="5386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5386" t="s">
-        <v>199</v>
+        <v>602</v>
       </c>
     </row>
     <row r="5387" spans="1:1" x14ac:dyDescent="0.25">
@@ -40950,7 +40944,7 @@
     </row>
     <row r="5388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5388" t="s">
-        <v>602</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5389" spans="1:1" x14ac:dyDescent="0.25">
@@ -40960,47 +40954,47 @@
     </row>
     <row r="5390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5390" t="s">
-        <v>199</v>
+        <v>613</v>
       </c>
     </row>
     <row r="5391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5391" t="s">
-        <v>613</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5392" t="s">
-        <v>390</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="5393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5393" t="s">
-        <v>4505</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="5394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5394" t="s">
-        <v>4505</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="5395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5395" t="s">
-        <v>4505</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5396" t="s">
-        <v>396</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5397" t="s">
-        <v>2</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5398" t="s">
-        <v>429</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5399" spans="1:1" x14ac:dyDescent="0.25">
@@ -52620,7 +52614,7 @@
     </row>
     <row r="7722" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7722" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7723" spans="1:1" x14ac:dyDescent="0.25">
@@ -52695,22 +52689,22 @@
     </row>
     <row r="7737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7737" t="s">
-        <v>326</v>
+        <v>601</v>
       </c>
     </row>
     <row r="7738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7738" t="s">
-        <v>601</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7739" t="s">
-        <v>347</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7740" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7740" t="s">
-        <v>434</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7741" spans="1:1" x14ac:dyDescent="0.25">
@@ -52730,47 +52724,47 @@
     </row>
     <row r="7744" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7744" t="s">
-        <v>363</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="7745" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7745" t="s">
-        <v>4506</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7746" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7746" t="s">
-        <v>416</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7747" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7747" t="s">
-        <v>301</v>
+        <v>589</v>
       </c>
     </row>
     <row r="7748" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7748" t="s">
-        <v>589</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7749" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7749" t="s">
-        <v>414</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7750" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7750" t="s">
-        <v>331</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7751" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7751" t="s">
-        <v>158</v>
+        <v>609</v>
       </c>
     </row>
     <row r="7752" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7752" t="s">
-        <v>609</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7753" spans="1:1" x14ac:dyDescent="0.25">
@@ -54565,27 +54559,27 @@
     </row>
     <row r="8111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8111" t="s">
-        <v>17</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8112" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8113" t="s">
-        <v>428</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="8114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8114" t="s">
-        <v>4507</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8115" t="s">
-        <v>14</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8116" spans="1:1" x14ac:dyDescent="0.25">
@@ -54605,37 +54599,37 @@
     </row>
     <row r="8119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8119" t="s">
-        <v>287</v>
+        <v>507</v>
       </c>
     </row>
     <row r="8120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8120" t="s">
-        <v>507</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8121" t="s">
-        <v>4</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8122" t="s">
-        <v>435</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="8123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8123" t="s">
-        <v>4508</v>
+        <v>568</v>
       </c>
     </row>
     <row r="8124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8124" t="s">
-        <v>568</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8125" t="s">
-        <v>397</v>
+        <v>617</v>
       </c>
     </row>
     <row r="8126" spans="1:1" x14ac:dyDescent="0.25">
@@ -54645,17 +54639,17 @@
     </row>
     <row r="8127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8127" t="s">
-        <v>617</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8128" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8129" t="s">
-        <v>356</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8130" spans="1:1" x14ac:dyDescent="0.25">
@@ -54680,12 +54674,12 @@
     </row>
     <row r="8134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8134" t="s">
-        <v>437</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8135" t="s">
-        <v>240</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8136" spans="1:1" x14ac:dyDescent="0.25">
@@ -54700,22 +54694,22 @@
     </row>
     <row r="8138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8138" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8139" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8140" t="s">
-        <v>376</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8141" t="s">
-        <v>432</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8142" spans="1:1" x14ac:dyDescent="0.25">
@@ -54830,7 +54824,7 @@
     </row>
     <row r="8164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8164" t="s">
-        <v>198</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8165" spans="1:1" x14ac:dyDescent="0.25">
@@ -54875,72 +54869,72 @@
     </row>
     <row r="8173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8173" t="s">
-        <v>408</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8174" t="s">
-        <v>27</v>
+        <v>612</v>
       </c>
     </row>
     <row r="8175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8175" t="s">
-        <v>612</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8176" t="s">
-        <v>47</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8177" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8178" t="s">
-        <v>318</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8179" t="s">
-        <v>388</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8180" t="s">
-        <v>320</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="8181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8181" t="s">
-        <v>4509</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8182" t="s">
-        <v>317</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8183" t="s">
-        <v>387</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8184" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8185" t="s">
-        <v>308</v>
+        <v>610</v>
       </c>
     </row>
     <row r="8186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8186" t="s">
-        <v>610</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8187" spans="1:1" x14ac:dyDescent="0.25">
@@ -54950,57 +54944,57 @@
     </row>
     <row r="8188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8188" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8189" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8190" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8191" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8192" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8193" t="s">
-        <v>367</v>
+        <v>576</v>
       </c>
     </row>
     <row r="8194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8194" t="s">
-        <v>576</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8195" t="s">
-        <v>377</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8196" t="s">
-        <v>505</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="8197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8197" t="s">
-        <v>4510</v>
+        <v>569</v>
       </c>
     </row>
     <row r="8198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8198" t="s">
-        <v>569</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8199" spans="1:1" x14ac:dyDescent="0.25">
@@ -55015,7 +55009,7 @@
     </row>
     <row r="8201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8201" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8202" spans="1:1" x14ac:dyDescent="0.25">
@@ -55085,47 +55079,47 @@
     </row>
     <row r="8215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8215" t="s">
-        <v>288</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8216" t="s">
-        <v>417</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8217" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8218" t="s">
-        <v>391</v>
+        <v>591</v>
       </c>
     </row>
     <row r="8219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8219" t="s">
-        <v>591</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8220" t="s">
-        <v>425</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8221" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8222" t="s">
-        <v>311</v>
+        <v>603</v>
       </c>
     </row>
     <row r="8223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8223" t="s">
-        <v>603</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8224" spans="1:1" x14ac:dyDescent="0.25">
@@ -55145,27 +55139,27 @@
     </row>
     <row r="8227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8227" t="s">
-        <v>54</v>
+        <v>573</v>
       </c>
     </row>
     <row r="8228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8228" t="s">
-        <v>573</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="8229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8229" t="s">
-        <v>4366</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8230" t="s">
-        <v>221</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8231" t="s">
-        <v>389</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8232" spans="1:1" x14ac:dyDescent="0.25">
@@ -55175,27 +55169,27 @@
     </row>
     <row r="8233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8233" t="s">
-        <v>277</v>
+        <v>541</v>
       </c>
     </row>
     <row r="8234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8234" t="s">
-        <v>541</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8235" t="s">
-        <v>386</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8236" t="s">
-        <v>336</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8237" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8238" spans="1:1" x14ac:dyDescent="0.25">
@@ -55220,22 +55214,22 @@
     </row>
     <row r="8242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8242" t="s">
-        <v>25</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8243" t="s">
-        <v>552</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8244" t="s">
-        <v>289</v>
+        <v>583</v>
       </c>
     </row>
     <row r="8245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8245" t="s">
-        <v>583</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8246" spans="1:1" x14ac:dyDescent="0.25">
@@ -56110,32 +56104,32 @@
     </row>
     <row r="8420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8420" t="s">
-        <v>270</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8421" t="s">
-        <v>378</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8422" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8423" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8424" t="s">
-        <v>98</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8425" t="s">
-        <v>516</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8426" spans="1:1" x14ac:dyDescent="0.25">
@@ -56155,42 +56149,42 @@
     </row>
     <row r="8429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8429" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8430" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8431" t="s">
-        <v>346</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8432" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8433" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8434" t="s">
-        <v>422</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8435" t="s">
-        <v>323</v>
+        <v>522</v>
       </c>
     </row>
     <row r="8436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8436" t="s">
-        <v>522</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8437" spans="1:1" x14ac:dyDescent="0.25">
@@ -56200,27 +56194,27 @@
     </row>
     <row r="8438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8438" t="s">
-        <v>364</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8439" t="s">
-        <v>327</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8440" t="s">
-        <v>433</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8441" t="s">
-        <v>271</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8442" t="s">
-        <v>130</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8443" spans="1:1" x14ac:dyDescent="0.25">
@@ -56235,7 +56229,7 @@
     </row>
     <row r="8445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8445" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8446" spans="1:1" x14ac:dyDescent="0.25">
@@ -56305,7 +56299,7 @@
     </row>
     <row r="8459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8459" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8460" spans="1:1" x14ac:dyDescent="0.25">
@@ -56325,22 +56319,22 @@
     </row>
     <row r="8463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8463" t="s">
-        <v>292</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8464" t="s">
-        <v>395</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8465" t="s">
-        <v>497</v>
+        <v>594</v>
       </c>
     </row>
     <row r="8466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8466" t="s">
-        <v>594</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8467" spans="1:1" x14ac:dyDescent="0.25">
@@ -56395,52 +56389,52 @@
     </row>
     <row r="8477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8477" t="s">
-        <v>293</v>
+        <v>584</v>
       </c>
     </row>
     <row r="8478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8478" t="s">
-        <v>584</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8479" t="s">
-        <v>441</v>
+        <v>620</v>
       </c>
     </row>
     <row r="8480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8480" t="s">
-        <v>620</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8481" t="s">
-        <v>445</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8482" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8483" t="s">
-        <v>348</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8484" t="s">
-        <v>415</v>
+        <v>595</v>
       </c>
     </row>
     <row r="8485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8485" t="s">
-        <v>595</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8486" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8487" spans="1:1" x14ac:dyDescent="0.25">
@@ -58175,57 +58169,57 @@
     </row>
     <row r="8833" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8833" t="s">
-        <v>275</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8834" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8834" t="s">
-        <v>52</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8835" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8835" t="s">
-        <v>403</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8836" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8836" t="s">
-        <v>302</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8837" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8837" t="s">
-        <v>24</v>
+        <v>575</v>
       </c>
     </row>
     <row r="8838" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8838" t="s">
-        <v>575</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8839" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8839" t="s">
-        <v>469</v>
+        <v>615</v>
       </c>
     </row>
     <row r="8840" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8840" t="s">
-        <v>615</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8841" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8841" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8842" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8842" t="s">
-        <v>420</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8843" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8843" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8844" spans="1:1" x14ac:dyDescent="0.25">
@@ -58235,102 +58229,102 @@
     </row>
     <row r="8845" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8845" t="s">
-        <v>337</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="8846" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8846" t="s">
-        <v>4453</v>
+        <v>4351</v>
       </c>
     </row>
     <row r="8847" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8847" t="s">
-        <v>4351</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="8848" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8848" t="s">
-        <v>4352</v>
+        <v>4353</v>
       </c>
     </row>
     <row r="8849" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8849" t="s">
-        <v>4353</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="8850" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8850" t="s">
-        <v>4370</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="8851" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8851" t="s">
-        <v>4396</v>
+        <v>4405</v>
       </c>
     </row>
     <row r="8852" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8852" t="s">
-        <v>4405</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="8853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8853" t="s">
-        <v>4406</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="8854" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8854" t="s">
-        <v>4412</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="8855" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8855" t="s">
-        <v>4417</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="8856" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8856" t="s">
-        <v>4425</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="8857" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8857" t="s">
-        <v>4426</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="8858" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8858" t="s">
-        <v>4428</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="8859" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8859" t="s">
-        <v>4429</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="8860" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8860" t="s">
-        <v>4431</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="8861" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8861" t="s">
-        <v>4434</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="8862" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8862" t="s">
-        <v>4438</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="8863" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8863" t="s">
-        <v>4442</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="8864" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8864" t="s">
-        <v>4446</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8865" spans="1:1" x14ac:dyDescent="0.25">
@@ -58345,7 +58339,7 @@
     </row>
     <row r="8867" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8867" t="s">
-        <v>26</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8868" spans="1:1" x14ac:dyDescent="0.25">
@@ -58355,7 +58349,7 @@
     </row>
     <row r="8869" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8869" t="s">
-        <v>432</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8870" spans="1:1" x14ac:dyDescent="0.25">
@@ -58365,32 +58359,32 @@
     </row>
     <row r="8871" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8871" t="s">
-        <v>17</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8872" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8872" t="s">
-        <v>198</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8873" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8873" t="s">
-        <v>339</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8874" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8874" t="s">
-        <v>275</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8875" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8875" t="s">
-        <v>339</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8876" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8876" t="s">
-        <v>17</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8877" spans="1:1" x14ac:dyDescent="0.25">
@@ -58400,7 +58394,7 @@
     </row>
     <row r="8878" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8878" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8879" spans="1:1" x14ac:dyDescent="0.25">
@@ -58410,17 +58404,17 @@
     </row>
     <row r="8880" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8880" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8881" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8881" t="s">
-        <v>270</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8882" t="s">
-        <v>17</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8883" spans="1:1" x14ac:dyDescent="0.25">
@@ -58430,52 +58424,52 @@
     </row>
     <row r="8884" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8884" t="s">
-        <v>288</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8885" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8885" t="s">
-        <v>198</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8886" t="s">
-        <v>427</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8887" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8887" t="s">
-        <v>17</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8888" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8888" t="s">
-        <v>351</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="8889" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8889" t="s">
-        <v>4429</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8890" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8890" t="s">
-        <v>351</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8891" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8891" t="s">
-        <v>26</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8892" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8892" t="s">
-        <v>288</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8893" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8893" t="s">
-        <v>427</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8894" spans="1:1" x14ac:dyDescent="0.25">
@@ -58485,12 +58479,12 @@
     </row>
     <row r="8895" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8895" t="s">
-        <v>26</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8896" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8896" t="s">
-        <v>427</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8897" spans="1:1" x14ac:dyDescent="0.25">
@@ -58500,7 +58494,7 @@
     </row>
     <row r="8898" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8898" t="s">
-        <v>351</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8899" spans="1:1" x14ac:dyDescent="0.25">
@@ -58520,37 +58514,37 @@
     </row>
     <row r="8902" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8902" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8903" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8903" t="s">
-        <v>17</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8904" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8904" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8905" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8905" t="s">
-        <v>298</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="8906" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8906" t="s">
-        <v>4504</v>
+      <c r="A8906" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8907" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8907" s="4" t="s">
-        <v>66</v>
+      <c r="A8907" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8908" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8908" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8909" spans="1:1" x14ac:dyDescent="0.25">
@@ -58560,27 +58554,27 @@
     </row>
     <row r="8910" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8910" t="s">
-        <v>4511</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8911" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8911" t="s">
-        <v>66</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8912" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8912" t="s">
-        <v>296</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8913" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8913" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8914" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8914" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8915" spans="1:1" x14ac:dyDescent="0.25">
@@ -58590,22 +58584,22 @@
     </row>
     <row r="8916" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8916" t="s">
-        <v>17</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8917" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8917" t="s">
-        <v>273</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8918" t="s">
-        <v>17</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8919" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8919" t="s">
-        <v>339</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8920" spans="1:1" x14ac:dyDescent="0.25">
@@ -58620,7 +58614,7 @@
     </row>
     <row r="8922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8922" t="s">
-        <v>270</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8923" spans="1:1" x14ac:dyDescent="0.25">
@@ -58650,21 +58644,16 @@
     </row>
     <row r="8928" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8928" t="s">
-        <v>339</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8929" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8929" t="s">
-        <v>17</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8930" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8930" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="8931" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8931" t="s">
         <v>339</v>
       </c>
     </row>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibrahem.abdelbaky\Downloads\FF-main (22)\FF-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibrahem.abdelbaky\Documents\MFG plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3BBB69-BAAF-4FD4-BAF1-C11716504CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D001D1F-85F7-4F4B-A609-F691F5C0F5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8948" uniqueCount="4510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8949" uniqueCount="4511">
   <si>
     <t>Base Unit Symbol</t>
   </si>
@@ -13553,6 +13553,9 @@
   </si>
   <si>
     <t>qt</t>
+  </si>
+  <si>
+    <t>K 7-Step MacAdam Ellipse</t>
   </si>
 </sst>
 </file>
@@ -13947,7 +13950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8930"/>
+  <dimension ref="A1:B8931"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -58657,6 +58660,11 @@
         <v>339</v>
       </c>
     </row>
+    <row r="8931" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8931" t="s">
+        <v>4510</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibrahem.abdelbaky\Documents\MFG plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D001D1F-85F7-4F4B-A609-F691F5C0F5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6356CE-4F44-4E3B-8104-5BB320E0F171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13952,7 +13952,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8931"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8892" workbookViewId="0">
+      <selection activeCell="A8931" sqref="A8931"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8932"/>
+  <dimension ref="A1:B8933"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71961,6 +71961,14 @@
       </c>
       <c r="B8932" t="inlineStr"/>
     </row>
+    <row r="8933">
+      <c r="A8933" t="inlineStr">
+        <is>
+          <t>AAAAA</t>
+        </is>
+      </c>
+      <c r="B8933" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8933"/>
+  <dimension ref="A1:B8932"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71961,14 +71961,6 @@
       </c>
       <c r="B8932" t="inlineStr"/>
     </row>
-    <row r="8933">
-      <c r="A8933" t="inlineStr">
-        <is>
-          <t>AAAAA</t>
-        </is>
-      </c>
-      <c r="B8933" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8932"/>
+  <dimension ref="A1:B8933"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71961,6 +71961,14 @@
       </c>
       <c r="B8932" t="inlineStr"/>
     </row>
+    <row r="8933">
+      <c r="A8933" t="inlineStr">
+        <is>
+          <t>K 1-Step MacAdam Ellipse</t>
+        </is>
+      </c>
+      <c r="B8933" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8933"/>
+  <dimension ref="A1:B8934"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71969,6 +71969,14 @@
       </c>
       <c r="B8933" t="inlineStr"/>
     </row>
+    <row r="8934">
+      <c r="A8934" t="inlineStr">
+        <is>
+          <t>K 2-Step MacAdam Ellipse</t>
+        </is>
+      </c>
+      <c r="B8934" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8934"/>
+  <dimension ref="A1:B8935"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71977,6 +71977,14 @@
       </c>
       <c r="B8934" t="inlineStr"/>
     </row>
+    <row r="8935">
+      <c r="A8935" t="inlineStr">
+        <is>
+          <t>K 6-Step MacAdam Ellipse</t>
+        </is>
+      </c>
+      <c r="B8935" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8935"/>
+  <dimension ref="A1:B8936"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71985,6 +71985,14 @@
       </c>
       <c r="B8935" t="inlineStr"/>
     </row>
+    <row r="8936">
+      <c r="A8936" t="inlineStr">
+        <is>
+          <t>K (2700K to 4000K)</t>
+        </is>
+      </c>
+      <c r="B8936" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8936"/>
+  <dimension ref="A1:B8937"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71993,6 +71993,14 @@
       </c>
       <c r="B8936" t="inlineStr"/>
     </row>
+    <row r="8937">
+      <c r="A8937" t="inlineStr">
+        <is>
+          <t>%FSR</t>
+        </is>
+      </c>
+      <c r="B8937" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8937"/>
+  <dimension ref="A1:B8938"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72001,6 +72001,14 @@
       </c>
       <c r="B8937" t="inlineStr"/>
     </row>
+    <row r="8938">
+      <c r="A8938" t="inlineStr">
+        <is>
+          <t>V (Limiting)</t>
+        </is>
+      </c>
+      <c r="B8938" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8938"/>
+  <dimension ref="A1:B8939"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72009,6 +72009,14 @@
       </c>
       <c r="B8938" t="inlineStr"/>
     </row>
+    <row r="8939">
+      <c r="A8939" t="inlineStr">
+        <is>
+          <t>cd/m²</t>
+        </is>
+      </c>
+      <c r="B8939" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8939"/>
+  <dimension ref="A1:B8941"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72017,6 +72017,22 @@
       </c>
       <c r="B8939" t="inlineStr"/>
     </row>
+    <row r="8940">
+      <c r="A8940" t="inlineStr">
+        <is>
+          <t>B RRAM</t>
+        </is>
+      </c>
+      <c r="B8940" t="inlineStr"/>
+    </row>
+    <row r="8941">
+      <c r="A8941" t="inlineStr">
+        <is>
+          <t>m (935nm to 945nm)</t>
+        </is>
+      </c>
+      <c r="B8941" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8941"/>
+  <dimension ref="A1:B8942"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72033,6 +72033,14 @@
       </c>
       <c r="B8941" t="inlineStr"/>
     </row>
+    <row r="8942">
+      <c r="A8942" t="inlineStr">
+        <is>
+          <t>m (395nm to 425nm)</t>
+        </is>
+      </c>
+      <c r="B8942" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9163"/>
+  <dimension ref="A1:B9165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73809,6 +73809,22 @@
       </c>
       <c r="B9163" t="inlineStr"/>
     </row>
+    <row r="9164">
+      <c r="A9164" t="inlineStr">
+        <is>
+          <t>m (495nm to 515nm)</t>
+        </is>
+      </c>
+      <c r="B9164" t="inlineStr"/>
+    </row>
+    <row r="9165">
+      <c r="A9165" t="inlineStr">
+        <is>
+          <t>m (614nm to 631nm)</t>
+        </is>
+      </c>
+      <c r="B9165" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9165"/>
+  <dimension ref="A1:B9170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73825,6 +73825,46 @@
       </c>
       <c r="B9165" t="inlineStr"/>
     </row>
+    <row r="9166">
+      <c r="A9166" t="inlineStr">
+        <is>
+          <t>W/100mm</t>
+        </is>
+      </c>
+      <c r="B9166" t="inlineStr"/>
+    </row>
+    <row r="9167">
+      <c r="A9167" t="inlineStr">
+        <is>
+          <t>W/10mm</t>
+        </is>
+      </c>
+      <c r="B9167" t="inlineStr"/>
+    </row>
+    <row r="9168">
+      <c r="A9168" t="inlineStr">
+        <is>
+          <t>W/300mm</t>
+        </is>
+      </c>
+      <c r="B9168" t="inlineStr"/>
+    </row>
+    <row r="9169">
+      <c r="A9169" t="inlineStr">
+        <is>
+          <t>W/500mm</t>
+        </is>
+      </c>
+      <c r="B9169" t="inlineStr"/>
+    </row>
+    <row r="9170">
+      <c r="A9170" t="inlineStr">
+        <is>
+          <t>W/50mm</t>
+        </is>
+      </c>
+      <c r="B9170" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9170"/>
+  <dimension ref="A1:B9171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73865,6 +73865,14 @@
       </c>
       <c r="B9170" t="inlineStr"/>
     </row>
+    <row r="9171">
+      <c r="A9171" t="inlineStr">
+        <is>
+          <t>V/(0.1mg/m³)</t>
+        </is>
+      </c>
+      <c r="B9171" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9171"/>
+  <dimension ref="A1:B9172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73873,6 +73873,14 @@
       </c>
       <c r="B9171" t="inlineStr"/>
     </row>
+    <row r="9172">
+      <c r="A9172" t="inlineStr">
+        <is>
+          <t>mHg</t>
+        </is>
+      </c>
+      <c r="B9172" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9172"/>
+  <dimension ref="A1:B9175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73881,6 +73881,30 @@
       </c>
       <c r="B9172" t="inlineStr"/>
     </row>
+    <row r="9173">
+      <c r="A9173" t="inlineStr">
+        <is>
+          <t>V/ (0.1mg/m³)</t>
+        </is>
+      </c>
+      <c r="B9173" t="inlineStr"/>
+    </row>
+    <row r="9174">
+      <c r="A9174" t="inlineStr">
+        <is>
+          <t>VA (AC)</t>
+        </is>
+      </c>
+      <c r="B9174" t="inlineStr"/>
+    </row>
+    <row r="9175">
+      <c r="A9175" t="inlineStr">
+        <is>
+          <t>W/1m</t>
+        </is>
+      </c>
+      <c r="B9175" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9175"/>
+  <dimension ref="A1:B9176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73905,6 +73905,14 @@
       </c>
       <c r="B9175" t="inlineStr"/>
     </row>
+    <row r="9176">
+      <c r="A9176" t="inlineStr">
+        <is>
+          <t>2.25V to 5.5V Supply Voltage</t>
+        </is>
+      </c>
+      <c r="B9176" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -73908,7 +73908,7 @@
     <row r="9176">
       <c r="A9176" t="inlineStr">
         <is>
-          <t>2.25V to 5.5V Supply Voltage</t>
+          <t>V Supply Voltage</t>
         </is>
       </c>
       <c r="B9176" t="inlineStr"/>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9176"/>
+  <dimension ref="A1:B9187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73913,6 +73913,94 @@
       </c>
       <c r="B9176" t="inlineStr"/>
     </row>
+    <row r="9177">
+      <c r="A9177" t="inlineStr">
+        <is>
+          <t>°C (-45°C to 145°C)</t>
+        </is>
+      </c>
+      <c r="B9177" t="inlineStr"/>
+    </row>
+    <row r="9178">
+      <c r="A9178" t="inlineStr">
+        <is>
+          <t>VAC 3P Delta</t>
+        </is>
+      </c>
+      <c r="B9178" t="inlineStr"/>
+    </row>
+    <row r="9179">
+      <c r="A9179" t="inlineStr">
+        <is>
+          <t>°C (90°C to 120°C)</t>
+        </is>
+      </c>
+      <c r="B9179" t="inlineStr"/>
+    </row>
+    <row r="9180">
+      <c r="A9180" t="inlineStr">
+        <is>
+          <t>K (2700K to 5000K) 6-Step MacAdam Ellipse</t>
+        </is>
+      </c>
+      <c r="B9180" t="inlineStr"/>
+    </row>
+    <row r="9181">
+      <c r="A9181" t="inlineStr">
+        <is>
+          <t>K (2700K to 6500K) 6-Step MacAdam Ellipse</t>
+        </is>
+      </c>
+      <c r="B9181" t="inlineStr"/>
+    </row>
+    <row r="9182">
+      <c r="A9182" t="inlineStr">
+        <is>
+          <t>lm (Typ) White Warm</t>
+        </is>
+      </c>
+      <c r="B9182" t="inlineStr"/>
+    </row>
+    <row r="9183">
+      <c r="A9183" t="inlineStr">
+        <is>
+          <t>lm (Typ) White Cool</t>
+        </is>
+      </c>
+      <c r="B9183" t="inlineStr"/>
+    </row>
+    <row r="9184">
+      <c r="A9184" t="inlineStr">
+        <is>
+          <t>°C (±1.8°C)</t>
+        </is>
+      </c>
+      <c r="B9184" t="inlineStr"/>
+    </row>
+    <row r="9185">
+      <c r="A9185" t="inlineStr">
+        <is>
+          <t>FPS</t>
+        </is>
+      </c>
+      <c r="B9185" t="inlineStr"/>
+    </row>
+    <row r="9186">
+      <c r="A9186" t="inlineStr">
+        <is>
+          <t>V/V/mT</t>
+        </is>
+      </c>
+      <c r="B9186" t="inlineStr"/>
+    </row>
+    <row r="9187">
+      <c r="A9187" t="inlineStr">
+        <is>
+          <t>MCM Cable</t>
+        </is>
+      </c>
+      <c r="B9187" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9187"/>
+  <dimension ref="A1:B9188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74001,6 +74001,14 @@
       </c>
       <c r="B9187" t="inlineStr"/>
     </row>
+    <row r="9188">
+      <c r="A9188" t="inlineStr">
+        <is>
+          <t>VAC for 1 min</t>
+        </is>
+      </c>
+      <c r="B9188" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9188"/>
+  <dimension ref="A1:B9189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74009,6 +74009,14 @@
       </c>
       <c r="B9188" t="inlineStr"/>
     </row>
+    <row r="9189">
+      <c r="A9189" t="inlineStr">
+        <is>
+          <t>K (1800K to 6500K) 5-Step MacAdam Ellipse</t>
+        </is>
+      </c>
+      <c r="B9189" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9189"/>
+  <dimension ref="A1:B9190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74017,6 +74017,14 @@
       </c>
       <c r="B9189" t="inlineStr"/>
     </row>
+    <row r="9190">
+      <c r="A9190" t="inlineStr">
+        <is>
+          <t>VAC/DC (Signal)</t>
+        </is>
+      </c>
+      <c r="B9190" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9190"/>
+  <dimension ref="A1:B9194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74025,6 +74025,38 @@
       </c>
       <c r="B9190" t="inlineStr"/>
     </row>
+    <row r="9191">
+      <c r="A9191" t="inlineStr">
+        <is>
+          <t>lm (400lm to 620lm)</t>
+        </is>
+      </c>
+      <c r="B9191" t="inlineStr"/>
+    </row>
+    <row r="9192">
+      <c r="A9192" t="inlineStr">
+        <is>
+          <t>lm (460lm to 620lm)</t>
+        </is>
+      </c>
+      <c r="B9192" t="inlineStr"/>
+    </row>
+    <row r="9193">
+      <c r="A9193" t="inlineStr">
+        <is>
+          <t>lm (420lm to 620lm)</t>
+        </is>
+      </c>
+      <c r="B9193" t="inlineStr"/>
+    </row>
+    <row r="9194">
+      <c r="A9194" t="inlineStr">
+        <is>
+          <t>lm (440lm to 620lm)</t>
+        </is>
+      </c>
+      <c r="B9194" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9194"/>
+  <dimension ref="A1:B9195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74057,6 +74057,14 @@
       </c>
       <c r="B9194" t="inlineStr"/>
     </row>
+    <row r="9195">
+      <c r="A9195" t="inlineStr">
+        <is>
+          <t>lm White Neutral</t>
+        </is>
+      </c>
+      <c r="B9195" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9195"/>
+  <dimension ref="A1:B9197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74065,6 +74065,22 @@
       </c>
       <c r="B9195" t="inlineStr"/>
     </row>
+    <row r="9196">
+      <c r="A9196" t="inlineStr">
+        <is>
+          <t>AWG Wrapping</t>
+        </is>
+      </c>
+      <c r="B9196" t="inlineStr"/>
+    </row>
+    <row r="9197">
+      <c r="A9197" t="inlineStr">
+        <is>
+          <t>AWG Unwrapping</t>
+        </is>
+      </c>
+      <c r="B9197" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9197"/>
+  <dimension ref="A1:B9198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74081,6 +74081,14 @@
       </c>
       <c r="B9197" t="inlineStr"/>
     </row>
+    <row r="9198">
+      <c r="A9198" t="inlineStr">
+        <is>
+          <t>K (10000K to 30000K)</t>
+        </is>
+      </c>
+      <c r="B9198" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9198"/>
+  <dimension ref="A1:B9199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74089,6 +74089,14 @@
       </c>
       <c r="B9198" t="inlineStr"/>
     </row>
+    <row r="9199">
+      <c r="A9199" t="inlineStr">
+        <is>
+          <t>K (9000K to 14000K)</t>
+        </is>
+      </c>
+      <c r="B9199" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9199"/>
+  <dimension ref="A1:B9200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74097,6 +74097,14 @@
       </c>
       <c r="B9199" t="inlineStr"/>
     </row>
+    <row r="9200">
+      <c r="A9200" t="inlineStr">
+        <is>
+          <t>K (5180K to 6680K)</t>
+        </is>
+      </c>
+      <c r="B9200" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9200"/>
+  <dimension ref="A1:B9201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74105,6 +74105,14 @@
       </c>
       <c r="B9200" t="inlineStr"/>
     </row>
+    <row r="9201">
+      <c r="A9201" t="inlineStr">
+        <is>
+          <t>m (617nm to 629nm)</t>
+        </is>
+      </c>
+      <c r="B9201" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9201"/>
+  <dimension ref="A1:B9202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74113,6 +74113,14 @@
       </c>
       <c r="B9201" t="inlineStr"/>
     </row>
+    <row r="9202">
+      <c r="A9202" t="inlineStr">
+        <is>
+          <t>m per Section</t>
+        </is>
+      </c>
+      <c r="B9202" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9202"/>
+  <dimension ref="A1:B9204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74121,6 +74121,22 @@
       </c>
       <c r="B9202" t="inlineStr"/>
     </row>
+    <row r="9203">
+      <c r="A9203" t="inlineStr">
+        <is>
+          <t>B (Internal DSP)</t>
+        </is>
+      </c>
+      <c r="B9203" t="inlineStr"/>
+    </row>
+    <row r="9204">
+      <c r="A9204" t="inlineStr">
+        <is>
+          <t>B (Internal MPU)</t>
+        </is>
+      </c>
+      <c r="B9204" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9204"/>
+  <dimension ref="A1:B9205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74137,6 +74137,14 @@
       </c>
       <c r="B9204" t="inlineStr"/>
     </row>
+    <row r="9205">
+      <c r="A9205" t="inlineStr">
+        <is>
+          <t>m (842nm to 858nm)</t>
+        </is>
+      </c>
+      <c r="B9205" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9205"/>
+  <dimension ref="A1:B9206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74145,6 +74145,14 @@
       </c>
       <c r="B9205" t="inlineStr"/>
     </row>
+    <row r="9206">
+      <c r="A9206" t="inlineStr">
+        <is>
+          <t>lm (35lm to 50lm)</t>
+        </is>
+      </c>
+      <c r="B9206" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9206"/>
+  <dimension ref="A1:B9219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74153,6 +74153,110 @@
       </c>
       <c r="B9206" t="inlineStr"/>
     </row>
+    <row r="9207">
+      <c r="A9207" t="inlineStr">
+        <is>
+          <t>lm (1060lm to 1185lm)</t>
+        </is>
+      </c>
+      <c r="B9207" t="inlineStr"/>
+    </row>
+    <row r="9208">
+      <c r="A9208" t="inlineStr">
+        <is>
+          <t>lm (1230lm to 1535lm)</t>
+        </is>
+      </c>
+      <c r="B9208" t="inlineStr"/>
+    </row>
+    <row r="9209">
+      <c r="A9209" t="inlineStr">
+        <is>
+          <t>lm (1020lm to 1230lm)</t>
+        </is>
+      </c>
+      <c r="B9209" t="inlineStr"/>
+    </row>
+    <row r="9210">
+      <c r="A9210" t="inlineStr">
+        <is>
+          <t>lm (1275lm to 1425lm)</t>
+        </is>
+      </c>
+      <c r="B9210" t="inlineStr"/>
+    </row>
+    <row r="9211">
+      <c r="A9211" t="inlineStr">
+        <is>
+          <t>lm (415lm to 535lm)</t>
+        </is>
+      </c>
+      <c r="B9211" t="inlineStr"/>
+    </row>
+    <row r="9212">
+      <c r="A9212" t="inlineStr">
+        <is>
+          <t>lm (1230lm to 1425lm)</t>
+        </is>
+      </c>
+      <c r="B9212" t="inlineStr"/>
+    </row>
+    <row r="9213">
+      <c r="A9213" t="inlineStr">
+        <is>
+          <t>lm (52lm to 71lm)</t>
+        </is>
+      </c>
+      <c r="B9213" t="inlineStr"/>
+    </row>
+    <row r="9214">
+      <c r="A9214" t="inlineStr">
+        <is>
+          <t>lm (1760lm to 1940lm)</t>
+        </is>
+      </c>
+      <c r="B9214" t="inlineStr"/>
+    </row>
+    <row r="9215">
+      <c r="A9215" t="inlineStr">
+        <is>
+          <t>lm (460lm to 535lm)</t>
+        </is>
+      </c>
+      <c r="B9215" t="inlineStr"/>
+    </row>
+    <row r="9216">
+      <c r="A9216" t="inlineStr">
+        <is>
+          <t>lm (1185lm to 1535lm)</t>
+        </is>
+      </c>
+      <c r="B9216" t="inlineStr"/>
+    </row>
+    <row r="9217">
+      <c r="A9217" t="inlineStr">
+        <is>
+          <t>W (1055mW to 1248mW)</t>
+        </is>
+      </c>
+      <c r="B9217" t="inlineStr"/>
+    </row>
+    <row r="9218">
+      <c r="A9218" t="inlineStr">
+        <is>
+          <t>lm (1185lm to 1425lm)</t>
+        </is>
+      </c>
+      <c r="B9218" t="inlineStr"/>
+    </row>
+    <row r="9219">
+      <c r="A9219" t="inlineStr">
+        <is>
+          <t>lm (1275lm to 1535lm)</t>
+        </is>
+      </c>
+      <c r="B9219" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9219"/>
+  <dimension ref="A1:B9225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74257,6 +74257,54 @@
       </c>
       <c r="B9219" t="inlineStr"/>
     </row>
+    <row r="9220">
+      <c r="A9220" t="inlineStr">
+        <is>
+          <t>lm (1355lm to 1600lm)</t>
+        </is>
+      </c>
+      <c r="B9220" t="inlineStr"/>
+    </row>
+    <row r="9221">
+      <c r="A9221" t="inlineStr">
+        <is>
+          <t>lm (1400lm to 1600lm)</t>
+        </is>
+      </c>
+      <c r="B9221" t="inlineStr"/>
+    </row>
+    <row r="9222">
+      <c r="A9222" t="inlineStr">
+        <is>
+          <t>lm (1850lm to 2195lm)</t>
+        </is>
+      </c>
+      <c r="B9222" t="inlineStr"/>
+    </row>
+    <row r="9223">
+      <c r="A9223" t="inlineStr">
+        <is>
+          <t>lm (1915lm to 2270lm)</t>
+        </is>
+      </c>
+      <c r="B9223" t="inlineStr"/>
+    </row>
+    <row r="9224">
+      <c r="A9224" t="inlineStr">
+        <is>
+          <t>lm (1905lm to 2260lm)</t>
+        </is>
+      </c>
+      <c r="B9224" t="inlineStr"/>
+    </row>
+    <row r="9225">
+      <c r="A9225" t="inlineStr">
+        <is>
+          <t>lm (1760lm to 2085lm)</t>
+        </is>
+      </c>
+      <c r="B9225" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9225"/>
+  <dimension ref="A1:B9228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74305,6 +74305,30 @@
       </c>
       <c r="B9225" t="inlineStr"/>
     </row>
+    <row r="9226">
+      <c r="A9226" t="inlineStr">
+        <is>
+          <t>lm (48lm to 71lm)</t>
+        </is>
+      </c>
+      <c r="B9226" t="inlineStr"/>
+    </row>
+    <row r="9227">
+      <c r="A9227" t="inlineStr">
+        <is>
+          <t>lm (460lm to 560lm)</t>
+        </is>
+      </c>
+      <c r="B9227" t="inlineStr"/>
+    </row>
+    <row r="9228">
+      <c r="A9228" t="inlineStr">
+        <is>
+          <t>m (960nm to 980nm)</t>
+        </is>
+      </c>
+      <c r="B9228" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9228"/>
+  <dimension ref="A1:B9229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74329,6 +74329,14 @@
       </c>
       <c r="B9228" t="inlineStr"/>
     </row>
+    <row r="9229">
+      <c r="A9229" t="inlineStr">
+        <is>
+          <t>lm (334lm to 450lm)</t>
+        </is>
+      </c>
+      <c r="B9229" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9229"/>
+  <dimension ref="A1:B9232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74337,6 +74337,30 @@
       </c>
       <c r="B9229" t="inlineStr"/>
     </row>
+    <row r="9230">
+      <c r="A9230" t="inlineStr">
+        <is>
+          <t>lm (560lm to 630lm)</t>
+        </is>
+      </c>
+      <c r="B9230" t="inlineStr"/>
+    </row>
+    <row r="9231">
+      <c r="A9231" t="inlineStr">
+        <is>
+          <t>lm (949lm to 1060lm)</t>
+        </is>
+      </c>
+      <c r="B9231" t="inlineStr"/>
+    </row>
+    <row r="9232">
+      <c r="A9232" t="inlineStr">
+        <is>
+          <t>m (9nm to 595nm)</t>
+        </is>
+      </c>
+      <c r="B9232" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9232"/>
+  <dimension ref="A1:B9234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74361,6 +74361,22 @@
       </c>
       <c r="B9232" t="inlineStr"/>
     </row>
+    <row r="9233">
+      <c r="A9233" t="inlineStr">
+        <is>
+          <t>ppm of FSR</t>
+        </is>
+      </c>
+      <c r="B9233" t="inlineStr"/>
+    </row>
+    <row r="9234">
+      <c r="A9234" t="inlineStr">
+        <is>
+          <t>lm (29lm to 40lm)</t>
+        </is>
+      </c>
+      <c r="B9234" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9234"/>
+  <dimension ref="A1:B9235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74377,6 +74377,14 @@
       </c>
       <c r="B9234" t="inlineStr"/>
     </row>
+    <row r="9235">
+      <c r="A9235" t="inlineStr">
+        <is>
+          <t>ppm of Vref</t>
+        </is>
+      </c>
+      <c r="B9235" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9235"/>
+  <dimension ref="A1:B9237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74385,6 +74385,22 @@
       </c>
       <c r="B9235" t="inlineStr"/>
     </row>
+    <row r="9236">
+      <c r="A9236" t="inlineStr">
+        <is>
+          <t>m (630nm to 670nm)</t>
+        </is>
+      </c>
+      <c r="B9236" t="inlineStr"/>
+    </row>
+    <row r="9237">
+      <c r="A9237" t="inlineStr">
+        <is>
+          <t>m (615nm to 624nm)</t>
+        </is>
+      </c>
+      <c r="B9237" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9237"/>
+  <dimension ref="A1:B9239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74401,6 +74401,22 @@
       </c>
       <c r="B9237" t="inlineStr"/>
     </row>
+    <row r="9238">
+      <c r="A9238" t="inlineStr">
+        <is>
+          <t>W (260W Forced Air)</t>
+        </is>
+      </c>
+      <c r="B9238" t="inlineStr"/>
+    </row>
+    <row r="9239">
+      <c r="A9239" t="inlineStr">
+        <is>
+          <t>W (259W Forced Air)</t>
+        </is>
+      </c>
+      <c r="B9239" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9239"/>
+  <dimension ref="A1:B9240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74417,6 +74417,14 @@
       </c>
       <c r="B9239" t="inlineStr"/>
     </row>
+    <row r="9240">
+      <c r="A9240" t="inlineStr">
+        <is>
+          <t>B NVM</t>
+        </is>
+      </c>
+      <c r="B9240" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
